--- a/news_data/2019_11.xlsx
+++ b/news_data/2019_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,63 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 사전여행허가제 제외될듯,관광산업 위축 우려 제주도 요구 수용</t>
+  </si>
+  <si>
+    <t>제주관광공사, '올바른 제주도 사용 가이드' 영상 제작</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광위, 카지노 '갱신허가제' 촉구 결의안 채택</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 러시아 관광 시장 공략 나서</t>
+  </si>
+  <si>
+    <t>롯데면세점, 제주도 관광 활성화 발벗고 나선다</t>
+  </si>
+  <si>
+    <t>부동석 35대 제주도관광협회장 취임</t>
+  </si>
+  <si>
+    <t>부동석 제35대 제주도관광협회장 취임 "소통" 강조</t>
+  </si>
+  <si>
+    <t>제주도관광협회 부동석 회장 취임 “회원 중심 협회로”</t>
+  </si>
+  <si>
+    <t>제주도, 만성 적자 제주관광공사 시내 면세점 철수하기로</t>
+  </si>
+  <si>
+    <t>12월 제주도 관광 10선...놓치지 말아야 할 여행코스는?</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 신임 회장에 부동석씨 선출</t>
+  </si>
+  <si>
+    <t>중국 관광객 일색 제주도 “무슬림 관광객을 잡아라”</t>
+  </si>
+  <si>
+    <t>제주도, 제주·원동항공과 TOP3 대만 관광객 유치 '맞손'</t>
+  </si>
+  <si>
+    <t>제주도, 세계 최대 '무슬림 관광시장'을 공략!</t>
+  </si>
+  <si>
+    <t>전자여행허가제, 관광타격 우려하는 제주도</t>
+  </si>
+  <si>
+    <t>제주도 이동약자를 위한 무장애 관광안내 책자를 발간</t>
+  </si>
+  <si>
+    <t>[전문] 제주도의회 예산안 심사 입장 - 이경용 문화관광체육위원장</t>
+  </si>
+  <si>
+    <t>제주도, 대만 관광시장 겨냥 공동 협력 강화</t>
+  </si>
+  <si>
+    <t>제주도, ‘대만 관광시장 타깃’ 직항항공사 공동 전략 마케팅</t>
+  </si>
+  <si>
     <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 세가지 갈치요리를 한 번에 효리의...</t>
   </si>
   <si>
@@ -52,34 +109,82 @@
     <t>제주도 성산일출봉 찾은 관광객들</t>
   </si>
   <si>
-    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 세가지 갈치요리를 한 번에 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>오늘 제주도관광협회 회장 보궐 선거 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이오늘 제주도관광협회 회장 보궐 선거 박주연2019년 11월 07일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도관광협회 회장 보궐선거가 오늘(7일) 치러집니다. 제주도 관광협회는 오늘 오후 제주웰컴센터에서 대의원 총회를 열어 당연직을 포함한 선거인단 180명이 단독출마한 부동석 관광협회 부회장에 대한 투표를 진행합니다. 대의원 과반수 이상의 표를 받을 경우 차기 회장으로 선출되는데, 김영진 전 회장의 잔여 임기인 오는 2천21년 2월까지 회장직을 맡겨됩니다. 박주연jyp@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초오늘 제주도관광협회 회장 보궐 선거 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>갈치회, 갈치구이, 갈치조림 모두 있는 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도, 2019년 하반기 우수관광사업체 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 2019년 하반기 우수관광사업체 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 2019년 하반기 우수관광사업체 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.11.04 17:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 오는 8일까지 도내의 우수한 품질과 고품격의 서비스를 갖춘 우수한 관광사업체를 모집한다고 밝혔다. 신청대상은 영업신고(리모델링) 후 1년 이상 제주특별자치도에 사업장 소재지(사업장 주소)를 둔 사업체다. 분야는 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야로, 이전에 우수관광사업체로 지정 후 2년이 도래한 사업체도 신청해 재지정을 받아야 한다. 우수관광사업체 선정은 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며, 지정 기간은 내년 1월1일부터 2021년 12월31일까지 2년이다. 이전 공모와 달리 △농어촌민박 중 농어촌민박업 안전인증을 받지 않은 업체 △자동차대여사업자 중 렌터카총량제 자율감차 1차분(50%) 감차 미이행 업체는 신청대상에서 제외된다. 주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등이 평가되며, 종합점수가 기준 점수(90점)를 충족한 경우 평정위원회 심의를 거쳐 최종 선정된다. 지정된 업체는 우수관광사업체 지정서 및 인증패가 수여되고, 제주특별자치도 및 유관기관 홈페이지 게재, SNS 홍보(블로그, 유튜브 등), 리플릿, 지도 제작 및 배포를 통해 홍보 인센티브 혜택이 주어지며 추가 홍보지원금도 지급된다. 또, 지정된 우수관광사업체 종사자 대상의 서비스 교육 지원도 받게 된다. 우수관광사업체로 지정을 희망하는 사업체는 제주특별자치도 홈페이지(www.jeju.go.kr) '타기관입법.공고.고시' 게시판에서 우수관광사업체 지정신청서 등을 다운로드 받아 제주특별자치도 관광협회(064-741-8744)에 신청하면 된다. 자세한 공모 내용은 제주특별자치도 관광협회 홈페이지에서 확인할 수 있다. 제주도 관계자는 "올해는 지난해에 비해 홍보지원금을 상향했고, 온라인홍보 강화를 위해 SNS홍보 채널을 추가했다"며 "또한 온라인마켓 탐나오 입점 및 구매 이벤트 등도 지원을 할 계획으로 도내 우수 관광사업체가 많이 참여해 주길 바란다"고 당부했다. 한편, 제주특별자치도에서는 현재 총 81개소를 우수관광사업체로 선정해 관리하고 있다. 선정된 업체는 관광지 33곳, 교통 7곳, 숙박 20곳, 여행 7곳, 음식점 14곳이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>효리의단골집 갈치회,구이,조림까지 한 번에 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 남녀노소 좋아하는 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>효리의단골집 제주도 중문 관광단지 맛집 호평일색 갈지청식 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도, 하반기 우수관광사업체 공모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:35 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 하반기 우수관광사업체 공모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도, 하반기 우수관광사업체 공모 문유미 기자 승인 2019.11.05 13:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 고품질 서비스를 갖춘 우수관광사업체를 모집한다. 제주도는 오는 8일까지 올 하반기 우수관광사업체 지정을 위한 신청을 접수하고 있다고 5일 밝혔다. 신청 대상은 도내 사업장 소재지를 두고 영업신고 및 리모델링 후 1년 이상 경과한 ▲관광지 ▲교통 ▲숙박업 ▲여행업 ▲음식업 등 5개 분야의 사업체다. 우수관광사업체로 지정된 지 2년이 지난 업체도 신청해 재지정을 받아야 한다. 특히 이번 공모에서는 농어촌민박 가운데 농어촌민박업 안전인증을 받지 않은 업체와 자동차대여사업자 중 렌터카 총량제 자율감차 1차분(50%) 미이행 업체가 신청대상에서 제외됐다. 공모 신청 업체는 신청서류 등 자격요건 심사와 현장평가, 평정위원회 심의 등을 거쳐 우수관광사업체로 선정될 수 있다. 우수관광사업체 지정 기간은 2년(2020년 1월 1일~2021년 12월 31일)이며, 선정된 업체에게는 지정서 및 인증패가 수여된다. 또 제주도 및 유관기관 홈페이지 게재, SNS 홍보, 리플릿·지도 제작 및 배포 등 홍보 인센브 혜택과 홍보 지원금이 제공되며 종사자 서비스 교육도 지원받을 수 있다. 제주도 관계자는 “올해는 지난해에 비해 홍보 지원금을 상향했고, 온라인 홍보 강화를 위해 SNS 홍보 채널도 추가했다”며 “또 제주여행 오픈마켓 ‘탐나오’ 입점 및 구매 이벤트 등을 지원할 계획으로, 도내 우수 사업체들의 많은 참여를 바란다”고 말했다. 한편 제주도는 현재 총 81개소(관광지 33, 교통 7, 숙박 20, 여행 7, 음식 14)를 우수관광사업체로 선정해 관리 및 지원하고 있다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 이달 중 도내 관광시설에 무장애 관광안내 책자 비치 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:37 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 이달 중 도내 관광시설에 무장애 관광안내 책자 비치 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 이달 중 도내 관광시설에 무장애 관광안내 책자 비치 현대성 기자 승인 2019.11.05 15:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 이달 중으로 도내 유명 관광시설 50곳에 무장애 관광안내 책자 ‘모두를 위한 여행 in Jeju’를 비치한다고 5일 밝혔다. 안내 책자에는 보장구 이동 동선 등 관광 경로와 장애인 화장실 이용 정보 등이 담긴다. 제주도는 노면 상태, 기울기, 장애물 등을 고려해 색깔로 보장구 이동 동선의 난이도를 표시했다. 제주도는 이동약자 관련 단체, 제주도와 양 행정시 민원실 등에도 책자를 비치할 예정이다. 제주도는 지난해 행정안전부의 ‘주민 체감형 디지털 사회혁신(공감e가득) 활성화’ 공모사업을 통해 발굴한 ‘무장애여행 데이터’의 활용 방안 중 하나로 이 책자를 발간했다. 제주도는 올해 공모사업으로 ‘이동약자가 체감할 수 있는 모바일 관광지 길안내서비스’ 어플리케이션을 개발하고 있다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 성산일출봉 찾은 관광객들 menu 제주도 성산일출봉 찾은 관광객들 search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 제주 천지포토 제주도 성산일출봉 찾은 관광객들 김태현 기자 승인 2019-11-04 14:53 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 [천지일보=김태현 기자] 4일 오후 제주도 서귀포시 성산읍 성산일출봉 일원을 찾은 관광객들의 발길이 이어지고 있다. 김태현 기자 kyi2077@newscj.com 다른기사 보기 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 칼럼 가보고 싶은 건축 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 천지시론 지금은 참 종교의 시대… 계시 받은 자 앞으로 나와야 하는 때 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 사설 무역수지 6개월 적자, 경상수지도 적자로 가나 사설 국정감사는 입법부 고유 권한이다 칼럼 가보고 싶은 건축 칼럼 기후 재난은 불평등 문제다 칼럼 “네가 좀 와서 들어줄래?” 아동성범죄자 김근식이 출소한다 칼럼 경제위기와 경제질서 기획 [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;5&gt;] HWPL과 약속 지킨 동유럽 수반들 “한반도 평화 통일지지” [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;4&gt;] 동유럽 민주주의 주역들도 “이만희 대표와 함께 하겠다” 손들어 [현대이야기&lt;21&gt;] “삼성을 잡아라”… 메모리 반도체 개발에 사활 걸었던 현대전자 연중기획 중소기업강국코리아 코리아스페이스㈜ 스페이스케어 “코로나 바이러스 99.99% 사멸로 청해부대 등 집단감염 막는다” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+    <t>제주관광공사, '올바른 제주도 사용 가이드' 영상 제작 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주관광공사, '올바른 제주도 사용 가이드' 영상 제작 도민·관광객 지켜야 할 에티켓 10가지 에피소드 (제주=뉴스1) 오현지 기자					| 2019-11-25 14:50 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주관광공사가 제주도 여행 문화 정착을 위해 제작한 '올바른 제주도 사용 가이드' 영상의 한 장면.(제주관광공사 제공) 2019.11.25 /뉴스1©News1 제주관광공사는 제주도 여행 문화 정착을 위해 '올바른 제주도 사용 가이드' 제목의 유튜브 영상을 제작했다고 25일 밝혔다.이번 영상은 모두 10편의 에피소드로 제작됐으며, 개그맨 황제성이 출연해 도민과 관광객이 지켜야 할 여행 에티켓을 소개한다.도민이 지켜야 할 에티켓으로는 친절한 관광객 응대, 적절한 요금 책정 등이 꼽혔으며, 관광객이 지켜야 할 에티켓으로는 문화유산 보호, 기초질서 준수 등이 선정됐다.관광공사는 해당 영상을 앞으로 1년간 도내 버스 정류장 및 전광판, 극장 등에 송출할 예정이다. 제주관광공사 관계자는 “금번 제작된 영상은 관광객과 도민이 상호존중을 통한 아름다운 여행 문화의 필요성을 인식하고 개선해 나간다는 점에서 좋은 시도로 평가받고 있다”고 말했다.관광공사의 ‘올바른 제주도 사용 가이드’ 영상은 제주관광공사 유튜브 채널에서 확인할 수 있다. ohoh@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광위, 카지노 '갱신허가제' 촉구 결의안 채택 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회 문화관광위, 카지노 '갱신허가제' 촉구 결의안 채택 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회 문화관광위, 카지노 '갱신허가제' 촉구 결의안 채택 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.11.27 16:58 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 27일 열린 제주도의회 문화관광체육위원회 회의. ⓒ헤드라인제주 제주특별자치도의회가 정부와 국회에 '카지노 갱신허가제' 도입을 촉구하고 나섰다. 제주도의회 문화관광체육위원회(위원장 이경용)는 27일 열린 제378회 제2차 정례회에서 이경용 위원장이 제안한 '카지노업 갱신허가제 도입 촉구 결의안' 채택했다. 도의회는 결의안을 통해 "제주도내 카지노 업체 대부분은 소규모, 자본의 영세성, 열악한 산업구조로 인해 대내외 경쟁력이 매우 취약한 상황"이라며 "잦은 허가권 양도.양수, 과당경쟁을 통한 불법 마케팅과 불법 게임, 제도의 허점을 이용한 매출신고 누락 등으로 제주 카지노의 대내외적 부정적 이미지마저 생겨났다"고 지적했다. 이어 "이에 제주도는 2015년 전국 최초로 카지노감독과를 설치해 자체적으로 노력하고 있으나, 국제적인 수준의 법제도 정비가 미뤄지면서 향후 대한민국 카지노 운영에 대한 오명으로 이어지지 않을까 우려되고 있는 상황"이라며 "더군다나 최근 카지노 복합리조트 추진에 따른 대형화, 외국계 카지노사업자의 진출 확대 등으로 국제적 수준의 카지노업 관리감독 체계마련과 지역이익 환원 대책 마련이 시급함에도 법제도 정비가 뒷받침되지 않아 도민들의 부정적 인식은 해소되지 않고 있다"고 진단했다. 도의회는 "카지노업 허가권이야 말로 국가가 부여한 특허적 성격을 지니고 있음에도 불구하고, 현재 관광진흥법에는 허가 유효기간이 없어 불건전하고 투명하지 못한 카지노 운영에 대한 실효성 있는 관리감독이 어려운 실정"이라며 현행법상 행정처분만으로는 고질적인 위법 행위의 근절은 물론 허가 취소나 경영권 분쟁 등을 근본적으로 해결하는데 어려움이 있다"며 갱신허가지의 필요성을 주장했다. 이어 "카지노업 갱신허가제를 통해 카지노의 무분별한 확산과 부적절한 양도.양수 방지, 허가권에 대한 혼란을 방지하는 강력한 권한과 엄격한 통제를 해 나갈 수 있다"면서 "이익의 지역환원 극대화와 사회적 부작용을 촤소화하는 등 지역의 요구도 적극 응할 수 있고 기여도를 높임으로써 부정적 인식을 해소하는 등 주민신뢰 확보 차원에서도 반드시 필요하다"고 강조했다. 도의회는 "카지노업의 갱신허가제 사안의 시급성과 중대성을 바르게 인식하고, 현재 국회에 계류된 노응래 의원이 대표발의한 관광진흥법 개정안이 조속히 통과될 수 있도록 국회는 적극 협조를 바란다"면서 "갱신허가제는 제주도만의 문제가 아닌 국가적 문제로 인식하고 정부차원에서 긍정적인 검토와 제도개선에 적극 나설 것을 촉구한다"고 밝혔다. 이어 "제주도지사는 관광진흥법 개정안은 물론 제주특별법 7단계 제도개선 과제에 카지노업 갱신허가제 도입 특례가 조속히 반영될 수 있도록 법개정에 모든 역량을 집중해 달라"고 당부했다. 결의안은 오는 16일 열리는 도의회 본회의에서 최종적으로 채택 여부가 결정된다. 결의안이 최종 채택되면 청와대와 국회, 국무총리실, 문화체육관광부에 결의안을 송부하게 된다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 러시아 관광 시장 공략 나서 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 러시아 관광 시장 공략 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회, 러시아 관광 시장 공략 나서 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.11.20 17:04 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 2020년 러시아와 수교 30주년을 맞아 제주도관광협회가 러시아 관광 시장 공략에 나선다. 관광협회는 지난 15일부터 18일까지 러시아 블라디보스토크를 방문해 연해주관광청과 우호교류 업무협약을 체결했다고 20일 밝혔다.  MOU에는 연해주 정부 부지사 쉐스타코프 콘슨탄틴과 오영환 주러시아대한민국영사관 총영사 등이 참석했다.  부동석 관광협회장은 “상호 방문교류 활성화를 도모하고, 각 지역에서 개최되는 레저·스포츠 등 관광이벤트와 연계한 전세기 취항 등을 적극 지원하겠다”고 말했다.  관광협회는 블라디보스토크에서 열린 ‘한국음식문화관광축제’에 참가해 제주 관광 콘텐츠를 홍보했으며, 러시아극동연방대학을 방문해 대학생 교류 활성화 프로그램 운영 등에 대해서도 논의했다.  관광협회 관계자는 “내년 수교 30주년 상호 교류의 해 기념사업을 통해 제주와 블라디보스토크를 잇는 전세기 취항 등 가시적인 성과가 도출될 것이라고 기대한다”며 “민간 교류 확대를 통해 다양한 해외 시장을 개척하겠다”고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>롯데면세점, 제주도 관광 활성화 발벗고 나선다 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 롯데면세점, 제주도 관광 활성화 발벗고 나선다 김민주 기자 입력: 2019-11-19 15:30 [디지털타임스 김민주 기자] 롯데면세점이 우리나라 대표 관광지 제주도를 대상으로 관광 활성화에 나선다. 롯데면세점은 지난 18일 제주 누웨마루 거리 내 지역 유명 음식점인 '서서방 숯불 닭갈비'를 '낙향미식' 제주 1호점으로 선정하고 외국어 메뉴판을 전달하는 행사를 가졌다고 19일 밝혔다. 이날 열린 제주 '낙향미식' 메뉴판 전달식에는 김민열 롯데면세점 제주점장, 홍신애 요리연구가 등 다수의 관계자가 참석했다. 홍신애 요리연구가는 이번 제주 낙향미식 프로젝트의 컨설팅을 담당, 메뉴판 제작뿐만 아니라 조리과정 및 음식점 위생과 관련된 전반적인 조언을 제공해 소상공인을 전방위적으로 지원하고있다. 서태원 서서방 숯불 닭갈비 사장은 "롯데면세점 낙향미식 프로그램을 통해 가게를 찾는 손님들에게 더욱 좋은 서비스를 제공하게 됐다"며 "더불어 홍신애 스타 쉐프의 컨설팅까지 받을 수 있어 음식의 맛과 경제적인 요소까지도 도움 받을 수 있어 매우 만족스럽다"라고 밝혔다. 낙향미식은 '즐거움을 누리는 아름다운 음식'이라는 뜻으로 롯데면세점이 지역 관광지 음식점을 찾아 외국어 메뉴판을 제작 및 외식 경영 관련 컨설팅을 통한 관광 편의 개선 목적의 사회공헌 사업이다. 지난해 서울 명동의 11개 음식점을 시작으로 전국적으로 확대해 나가고 있다. 롯데면세점은 이번에 선정된 음식점들 대상으로 롯데면세점 SNS, 홈페이지 등 보유 홍보 채널을 통한 지속적인 홍보도 이어나갈 계획이다. 이번 프로젝트는 올해 12월까지 제주시 누웨모루 거리 일대의 약 11개 음식점을 대상으로 진행되며, 롯데면세점이 전달한 새 메뉴판으로 해당 음식점을 찾는 제주 방문 외국인 관광객들의 편의가 크게 개선될 것으로 기대된다. 롯데면세점은 대표 사회공헌 사업인 '청년기업&amp;지역 상생 프로젝트'의 제주편인 '청출어냠'도 현재 진행 중이다. 청년기업&amp;지역 상생 프로젝트는 청년 기업의 성장 기틀 마련을 통해 지역 일자리 창출 및 지역 경제 활성화에 도움이 되고자 기획됐다. 영리목적의 지분 투자나 융자 형태의 기존 창업 지원과 달리 100% 기부 형태의 지원이라는 점에서 좋은 평가를 받고 있다. 롯데면세점은 올해 상반기 부산 지역 관광 활성화를 위한 청년 기업 육성 프로젝트를 처음 시행했으며, 이번 제주 '청출어냠'이 두 번째다. 이갑 롯데면세점 대표는 "지역 소상공인 및 청년기업과의 상생과 협력을 통해 지역 경제와 관광 활성화는 물론이고 더 나아가 한국 관광의 질적 발전에 힘쓰는 선도 기업으로 나아가겠다"고 말했다. 김민주기자 stella2515@dt.co.kr 롯데면세점은 지난 18일 제주 누웨마루 거리 내 지역 유명 음식점인 '서서방 숯불 닭갈비'를 '낙향미식' 제주 1호점으로 선정하고 외국어 메뉴판을 전달하는 행사를 가졌다고 19일 밝혔다.&lt;롯데면세점 제공&gt; [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1[단독]새만금 풍력 7200배 수익올린 교수…애초부터 中에 지분넘길 계획이었다 2신혜성, 도난차량으로 음주운전 인정...“죄송하다” 3경찰, 지난 주말 이준석 소환조사… 주중 송치여부 결정 4미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 5박수홍 부친이 불붙인 ‘친족상도례’ 논란 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+  </si>
+  <si>
+    <t>부동석 35대 제주도관광협회장 취임 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 부동석 35대 제주도관광협회장 취임 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 부동석 35대 제주도관광협회장 취임 제주CBS 박정섭 기자 메일보내기 2019-11-22 13:39 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 21일 유관기관 대표와 도의원 등 참석속에 취임식 가져 (사진=자료사진) 부동석 제35대 제주도관광협회장이 지난 21일 오전 제주메종글래드호텔에서 유관기관 대표, 도의원, 관광협회 직원 등 150여명이 참석한 가운데 취임했다. 부동석 회장은 취임식에서 "35대 회장 임기가 진행되는 2020년에는 제주관광에 있어 대외적으로는 중국, 일본등과의 외교적 마찰 등으로 녹록지 않은 한해가 될 것"이라며 "관광업계가 직면한 어려움을 개선하고 경쟁력 강화에 초점을 두고 구체적인 실천 전략을 수립해 나가겠다"고 말했다.또 "공약들이 헛공약이 아닌 진실 공약으로 이행하기 위해 의견을 경청하고, 수렴해 추진 사업에 적극 반영하도록 하겠다"고 약속했다.부 회장은 이어 "이를 위해 항상 열린 자세와 소통으로 회원중심의 사무본부를 운영해 나가겠다"며 회원사의 적극적인 참여와 협조를 부탁했다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 금감원 '수상한 외환거래' 이달 중 검사 마무리 서울 한복판 공원서 권총 극단 시도…수사 착수 "경찰 아니다" [칼럼]핵위협 공포에 휩싸인 한반도 복지장관 340만원, 청년 120만원…연금의 '세대격차' 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>부동석 제35대 제주도관광협회장 취임 "소통" 강조 &lt; 인사 &lt; 사람들 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 부동석 제35대 제주도관광협회장 취임 "소통" 강조 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 인사 부동석 제35대 제주도관광협회장 취임 "소통" 강조 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.11.21 20:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제35대 제주도관광협회 부동석 회장이 21일 취임했다. 21일 오전 11시30분 메종글래드 제주에서 열린 취임식에서 부 회장은 “중국, 일본 등 국가와 외교적 문제로 2020년 제주 관광 시장은 녹록치 않을 것”이라며 “도내 관광 업계가 직면한 어려움을 해결하고, 경쟁력을 강화할 수 있는 실천 전략을 수립하겠다”고 말했다.  부 회장은 “열린 자세로 소통해 회원 중심으로 사무본부를 운영하겠다. 다양한 의견을 경청하고, 수렴해 추진 사업에 적극 반영하겠다”고 덧붙였다.  지난 7일 열린 관광협회 ‘2019년도 임시 대의원총회’에서 단독출마해 참석 대의원 만장일치로 당선된 부 회장의 임기는 총선 출마를 사유로 중도 사퇴한 김영진 전 회장의 잔여임기인 2021년 2월까지다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 부동석 회장 취임 “회원 중심 협회로” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회 부동석 회장 취임 “회원 중심 협회로” 파이낸셜뉴스입력 2019.11.21 22:56수정 2020.04.25 13:16 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 부동석 제35대 제주도관광협회장 취임식 . [제주=좌승훈 기자] 제주특별자치도관광협회는 21일 메종글래드 제주 컨벤션홀에서 유관기관 대표와 제주도의회 의원, 협회 대의원과 임직원 등 150여명이 참석한 가운데 부동석 제35대 회장 취임식을 가졌다. 부 회장은 이날 취임사를 통해 "2020년은 제주관광에 있어 매우 중요한 시기"라며 "대외적으로는 중국·일본 등과의 외교적 마찰로 녹록지 않은 한 해가 될 것으로 예상됨에 따라 업계가 직면한 위기상황을 개선하는 한편 경쟁력 강화에 초점을 두고 구체적인 실천 전략을 수립해 나가겠다"라고 밝혔다. 이어 "선거공약이 헛공약이 아닌 진실공약으로 이행하기 위해 의견을 경청하고 수렴해 협회 사업에 적극 반영하도록 하겠다"며 "이를 위해 항상 열린 자세와 소통으로 회원 중심의 사무본부체계를 갖추겠다"고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N1 이전 다음 제주도, 만성 적자 제주관광공사 시내 면세점 철수하기로 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 정치 제주도, 만성 적자 제주관광공사 시내 면세점 철수하기로 홍석준 기자 승인 2019.11.20 13:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 원희룡 지사 “시내 면세점, 철수 전제로 대책 세우고 있다” 답변 “미래를 위한 투자 결정한 것은 도지사 … 내 책임” 잘못 인정 ‘한라산 모노레일 설치’ 제안에 “숙의형 공론조사 또는 주민투표 사안” 도정질문 3일째인 20일 본회의에 출석한 원희룡 지사가 이경용 의원의 질문에 답변을 하고 있다. /사진=제주특별자치도의회 [미디어제주 홍석준 기자] 만성적인 적자에 허덕이고 있는 제주관광공사의 시내면세점 사업이 철수하게 될 것으로 보인다. 원희룡 지사는 도정질문 사흘째인 20일 오전 이경용 의원(무소속, 서귀포시 서홍‧대륜동)으로부터 관련 질문을 받고 “크루즈 관광이 재개되더라도 이게 관광공사의 시내 면세점으로 연결될지는 불확실하다”면서 “도민 세금으로 계속 적자를 메꾸는 것은 감당하기 힘들기 때문에 현재로서는 철수를 전제로 대책을 세우고 있다”고 밝혔다. 원 지사는 또 “큰 틀에서 관광공사 지정면세점은 적자지만 JDC는 막대한 수익을 올리고 있지 않느냐”며 “과연 제주에 온 면세 구입객들의 매출액과 수익이 어디로 가야 하는가 하는 근본적인 문제가 있다. 구조적인 면에서 조정이 필요하다는 각도에서 접근하겠다”는 답변도 내놨다. 이에 앞서 관광공사 면세점 적자 문제에 대한 얘기를 꺼낸 이 의원은 “사업 초기부터 목표가 달성되기는커녕 도민 혈세가 계속 투입되고 있다”면서 “도의 재정적 지원을 받지 않고서는 공사의 존립 기반이 흔들리게 된 상황”이라고 지적했다. 지난해 제주도가 30억원을 지원했음에도 40억 적자가 발생했고, 올해도 27억원을 지원했지만 43억원 적자가 예상되고 있는데 내년에도 50억원 지원을 요청한 상태라는 점을 들기도 했다. 이에 이 의원은 “당시 용역을 한 분들이 누군지 따져묻고 싶다. 용역진이 책임을 저야 하는 거 아니냐”고 따졌다. 그는 “대기업이 건재하고 있는 면세점 사업에 아무런 기반도 없는 관광공사가 진출할 때는 용역보고서에 의해서 했을 텐데 책임을 져야 하지 않느냐”고 용역진의 책임론을 거듭 제기했다. 이 의원의 이같은 지적에 원 지사는 “기본적으로 적자를 감수해서라도 미래를 위해 투자하자는 결정을 한 것은 도지사의 결정이었다”면서 최종적인 책임이 자신에게 있음을 시인했다. 그는 “2차적인 책임이 관광공사와 용역진에 있다고 볼 수도 있지만 그 분들에게 책임을 묻기보다 결과론적인 책임을 지는 것은 도지사라고 생각한다”는 입장을 밝혔다. 이 의원이 새로운 수익모델을 생각하는 게 있는지 묻는 질문에 원 지사는 “당장 면세 수입에서 지속적인 자립 재원을 마련하려면 JDC와 영역을 조정하거나 수익에 대한 배분 조정이 있어야 한다”면서 “그 방향이 아니라면 새로운 사업을 개척할 필요가 있다”고 답했다. 곧바로 이 의원이 새로운 수익사업 모델로 한라산 모노레일 설치를 제안하자 원 지사는 “케이블카나 모노레일은 90년대부터 검토됐지만 환경 훼손등 문제 때문에 보류됐지만 지금도 케이블카 설치를 요구하는 도민들이 많다”면서 “언젠가는 검토 내지 가부간에 결론을 내려야 될 문제”라는 답변을 내놨다. 원 지사는 이어 “기초적인 검토와 조사, 의견 수렴을 한 다음에 만약 본격 추진을 하게 된다면 제주도가 해야 한다”면서 “도민이 결정해서 제주도가 시행해야 할 사업이기 때문에 이 사업이야말로 숙의형 공론조사 또는 주민투표 사안이라고 생각한다”고 말했다. 다만 그는 “케이블카든 모노레일이든 지금 당장 주민투표에 붙이겠다는 게 아니라 신중한 검토가 필요하다”면서도 “친환경적으로 갈 수 있는 기술과 방법이 어디까지 와있는지 충분히 수집한 다음에 도민들의 공론에 붙일 필요가 있다고 판단한다면 본격적으로 도민들에게 의견을 묻겠다”는 입장을 밝혔다. Tag #원희룡 #도정질문 #이경용 #제주관광공사 #면세점 #철수 #모노레일 #케이블카 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>12월 제주도 관광 10선...놓치지 말아야 할 여행코스는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 12월 제주도 관광 10선...놓치지 말아야 할 여행코스는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 12월 제주도 관광 10선...놓치지 말아야 할 여행코스는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.11.20 10:04 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사(사장 박홍배)는 20일 ‘올해도 애쓴 당신과 나, 12월의 제주에서 쉬멍쉬멍'(쉬엄쉬엄 의미의 제주어)을 주제로 자연, 축제, 관광지, 음식 등 다양한 분야에서 놓치지 말아야 할 12월 제주 관광 추천 10선을 발표했다. 1. 뜨거웠던 한해 달콤한 마무리 ; 일몰축제 해넘이명소 다사다난했던 한해, 이글거리는 태양과 함께 넘겨버리고 맑은 얼굴로 새해를 맞이하고 싶다면? 일몰 명소 찾아 고고! 제주 서쪽 대정읍 동일리에선 주민들이 함께하는 해넘이 축제가 마련된다. 주민과 따뜻한 음식을 나누는 소소하면서도 정감 있는 이곳에선 해질녘 달집태우기가 장관. 강정포구에선 수평선으로 내려앉는 해를 배웅하고 표선 소금막해변에서는 겨울철 한라산으로 넘어가는 해를 바라볼 수 있다. 좀 더 높이 생태여행의 명소 한라생태숲 전망대에서 관탈섬과 보길도를 내려다보며 산 너머로 지는 해를 바라보는 것도 독특한 경험이요 수월봉 팔각정에 올라 360도 뷰와 함께 얻는 차귀도 바다 일몰도 좋다. 여기에 100년 역사 등대가 자리한 사라봉 일몰까지 제주 곳곳 일렁이는 해넘이를 배경으로 올 한 해 수고한 나를 토닥이며 차분하게 새해를 맞이할 준비에 나서자. -대정읍 동일리 해넘이 축제 : 대정읍 동일리 다목적회관 앞마당 / 2019년 12월 28일 -표선 소금막해변 : 서귀포시 표선면 표선리 -강정포구 : 서귀포시 강정동 4965-1 -한라생태숲(전망대) : 제주시 516로 2596 -수월봉 : 제주시 한경면 고산리 -사라봉 : 제주시 건입동 2. 제주의 겨울, 즐겁고 행복한 쉼을 찾아 ; 제주윈터페스티벌 등 제주 겨울관광 콘텐츠로 자리 잡은 제주 윈터페스티벌이 12월 21일부터 한라산 어리목 일대에서 열린다. 제주의 겨울을 담아갈 포토존과 눈썰매, 컬링 등 동계 액티비티, 대형 윷놀이 투호 등 전통문화체험까지. 연인 혹은 가족들과 함께 제주의 겨울을 맘껏 즐기자. 성탄절을 앞둔 4주전부터 세계 각지에는 크리스마스 마켓이 열리는데, 제주에선 크리스마스 박물관이 준비했다. 성탄까지 매일 오후 열리는 제주 크리스마스 마켓에는 다양한 크리스마스 소품과 아티스트들의 작품, 셰프들의 크리스마스 디저트와 요리도 선보이고, 아이들을 위한 체험활동으로 즐거움을 키운다.(마켓은 매일 오후4~8시, 12월 24,25일 마켓오픈 오전 10시, 퍼레이드 저녁8시) 어린 시절 이맘때 사던 크리스마스 씰, 혹시 기억하는지? 올해는 특별히 제주의 해녀문화를 담아 발매됐다니, 사는 순간 해녀문화도 기억하고 결핵퇴치에 힘 보태는 따뜻한 연말이 된다. 이밖에 제주곳곳 호텔과 카페가 마련한 크리스마스 행사들로 제주의 12월에는 행복한 쉼 가득. -한라산 어리목광장 : 제주시 1100로 2070-61(제주윈터페스티벌 12월 21일~1월 19일) -바이나흐튼 크리스마스박물관 : 서귀포시 안덕면 서광리 456 -대한결핵협회 크리스마스 씰 : www.knta.or.kr 3. 제주의 신비로운 이야기들 ; 신화전설탐방로 신화가 살아있는 제주, 걷기 좋은 섬 제주. 이 둘을 합쳐보면? 정답은 바로 여기! 신과 인간이 만나 함께 즐거워한다는 제주 신화전설 탐방로 ‘신나락 만나락’은 제주도를 본뜬 모양에 총 5개 코스와 14개 조형물 쉼터로 조성되어 있다. 화산송이 길과 곶자왈, 그리고 돌담길과 정낭으로 제주적인 정취를 유지한 공간에 제주의 대표신화들을 조형물과 안내문으로 전한다. 30분이 소요되는 가족 길을 걸어도, 1시간이 걸리는 둘레길을 걸어도 자연 속에 녹아있는 제주인의 삶을 느끼기에는 무리가 없다. 제주의 탄생부터 신들의 사랑과 아픔, 삼각관계 등 흥미진진한 이야기까지! 제주 섬에서 오래도록 흘러온 이야기 속으로 한걸음씩 걸어 들어가며 제주신화역사공원에 신화전설탐방로가 있다는 사실도 기억하게 될 것이다. -제주신화전설탐방로 : 서귀포시 안덕면 서광리 4. 이젠 예술도 디지털로 ㅣ; SM디지털아트뮤지엄, 빛의 벙커 등 제주 서부 애월에 디지털 아트 뮤지엄이 문을 열었다. 첫 전시는 한?러 수교 30주년을 기념한 러시아 예술 &lt;알리사, 리턴 투 원더랜드&gt;. 이상한 나라의 앨리스를 재해석해 몸을 움직여 미션을 수행하는 이 작품은 몸을 뜻하는 피지컬과 디지털이 합쳐진 국내최초의 피지털 예술이라고. 미끄럼을 타고 트램펄린에 올라 뛰는 것도 작품의 일부란다. 디지털 영상 속 클림트와 훈데르트 바서의 작품 속으로 인도하던 빛의 벙커가 새 옷을 입었다. 이제는 빈센트 반 고흐의 세계라니, 모두가 사랑하는 그의 작품 속으로 선뜻 들어가고 싶어진다. 신상 테마파크에서도 우리가 사랑하는 예술가 고흐를 만날 수 있다. 전망대에 오르면 반가운 그의 얼굴이 보이고, 전용앱을 깔면 멈춰있던 그의 작품이 움직이며 나에게 말을 건다. 미로체험과 파충류관은 덤! -SM디지털아트뮤지엄 : 제주시 애월해안로 516-7 -빛의 벙커 : 서귀포시 성산읍 고성리 2039-22 -고흐의 정원 : 서귀포시 성산읍 삼달신풍로 132 5. 사람과 동물, 자연 안에서 하나 되는 ; 궁대오름(궁대악) 동서로 낮게 누운 활모양 산체로 궁대오름이라 불리는 이곳은 정상높이 239m, 가장 긴 탐방로가 2.5km의 작고 완만한 오름. 잘 가꾸어진 탐방로 덕분에 편백나무와 삼나무, 상수리나무로 우거진 숲을 쉽게 오를 수 있고 제주 동부의 오름과 풍력발전기의 풍경도 조망 가능하다. 탐방 코스는 크게 3가지. 30분이 소요되는 전망대 탐방로와 1시간짜리 자연생태공원 순환탐방로, 80분이 소요되는 궁대오름 둘레길까지 형편에 따라 골라 걷자. 미리 신청하면 전문가의 오름 해설도 준비된다고. 오름 주변에 조성된 자연생태공원에서는 노루를 비롯해 사고로 구조되어온 야생동물들을 살피며 전문가의 설명도 들을 수 있다. 연중 만들기 체험, 계절별 생태학습 프로그램까지 마련된 자연의 놀이터에서 온 가족의 휴식이 기다린다. 주차 등 편의시설 역시 생태공원에서 이용가능. -궁대오름(궁대악) : 서귀포시 성산읍 수산리 4711-8 -제주자연생태공원 : 서귀포시 성산읍 금백조로 446 / www.jejunaturepark.com 6. 공간의 변신은 무죄, 비로소 마음 내려놓다 ; 수상한 집 이름부터 수상한 이 집은 4.3과 조작간첩 등 국가폭력 피해자인 강광보씨의 시간과 공간에서 출발한다. 오래전, 간첩 혐의로 아들이 감옥에 갇히자 그의 노부모는 아들이 돌아왔을 때 뉘일 자리는 있어야겠다는 생각에 손수 집을 지었다. 이후 돌아온 아들은 부모와 함께 이곳에 살며 진실을 위해 싸웠고 이제 국가폭력 피해자를 위해 공간을 내놓은 것. 오래된 작은 집을 현대식 3층 건물이 둘러싼 이 독특하고 수상한 형태는 더 이상의 피해는 없어야겠다는 마음들이 모인 후원과 펀딩으로 만들어졌다고. 이 수상한 집 속 옛 집은 세계최초 조작간첩 피해자 기념관으로, 나머지 공간은 게스트하우스나 강의실, 카페로 활용되고 있다. 아픈 역사의 일부분을 눈으로 보고 가슴으로 느끼는 공간에서 지금도 우리 곁을 살아가는 국가폭력 피해자들의 이야기에 한걸음 다가가자. -수상한집광보네 : 제주시 도련3길 14-4 7. 녹아내릴 듯 날아갈 듯, 내 눈 가득 포근함 ; 팜파스 그라스, 코키아 서양억새인 팜파스 그라스는 사람보다 큰 키에 부드럽고 풍성한 꽃대로 낭만을 자아낸다. 숲과 하늘로 둘러싸인 이 비밀스런 농장에는 마치 깃털처럼, 목화솜처럼 풍성한 팜파스그라스가 피어 꽃이 귀한 계절 얼어가는 마음을 간지럽힌다. 단, 개인 사유지에서 판매용으로 재배중이기에 입장료가 있다는 점 미리 알고가자. 농장 근처 영주산에 올라 팜파스 그라스를 내려다보는 알뜰족의 비법도 있다. 그런가하면 철 맞춰 독특한 식생으로 꾸며지는 정원카페에서는 핑크뮬리에 이어 코키아가 빛을 발한다. 기온에 따라 색이 달라지는 신기한 이 식물이 그 순간 어떤 모습일지라도 실망하지 말자. 눈앞에 아른거리는 포근한 질감과 색감 이상, 그 작은 생명 그 자체로 지친 이들에게 위로가 될 테니까. -팜파스그라스(농장) : 서귀포시 표선면 성읍리 310번지 -카페글렌코 : 제주시 구좌읍 송당리 2635-8(코키아) 8. 제주라서 가능해, 특별한 달콤함 ; 간식도 제주스타일 다른 곳 어디에도 없는 제주만의 간식을 원한다면? 여기 한라산의 사계절을 담아낸 수제 베이커리가 입소문을 타는 중이다. 산의 능선과 백록담까지, 빵이 아니라 예술작품에 가까운 디테일에 누가 봐도 제주라는 독특함이 디저트는 물론 선물용으로 인기. 빵과 함께, 다양한 색감의 한라산 초콜릿과 제주도 초콜릿도 다른 어디서 볼 수 없는 맛과 모양. 제주 명물 흑돼지와 당근도 제주다운 간식으로 변신했다. 오동통한 얼굴의 흑돼지 마카롱, 짧고 굵은 주황주황 당근마카롱으로 사람들의 눈을 사로잡은 것. 귀여워서 어떻게 먹나 해놓고 달콤함에 나도 모르게 한 입 더! 제주에만 있는 독특한 아이스크림은 어떤가. 귤빛 바탕에 잎색 글자, 탐나바와 탐나쮸. 제주 감귤 100%의 진한 새콤달콤함을 아무데서나 파는 게 아니라니 발견하는 재미까지. 탐이 난다 탐이 나! -한라산빵1950 : 제주 제주시 구산로 28 -라움인제주 : 서귀포시 성산읍 신양로 52 -탐나바,탐나쮸 판매처 : 도내 일부 농협 하나로마트, 유명 관광지 등 9. 티켓 하나로 두루두루, 새로운 펍문화로 놀며 쉬며 ; 서귀포 펍크롤 이집 저집 돌아다니면서 술을 마신다는 뜻의 펍크롤은 하와이, 홍콩, 런던 등 해외 여행지에서는 이미 하나의 문화로 자리 잡았다. 이제 제주의 여행트렌드도 글로벌해진다. 세계적인 여행플랫폼이 제주에서의 밤문화로 손꼽은 서귀포 펍크롤은 도심과 자연어우러진 서귀포 시내를 느리게 걸으며 술도 마시고 제주의 정취도 마시는 방법. 매주 수요일과 토요일 저녁 집결지에 모여 함께 도보로 이동하며 매번 다른 레파토리와 흥겨운 음악, 새로운 사람들과의 만남에 맥주부터 칵테일까지 펍마다 개성 있는 술맛과 서귀포의 아름다움에 취할지도. 특히 저녁 5시부터 시작되는 토요일 펍크롤에서 노을을 만나면 쉼이 더해진다. 주의사항 과음금지, 딱 기분 좋을 정도로만 마실 것. 사전예약 및 현장구매 모두 가능. -서귀포펍크롤 : www.sgwairport.com/shop/ 10. 또똣(따뜻)한 한그릇에 마음 사르르 ; 옥돔과 꿩요리 겨울이 제철인 생선가운데 옥돔도 손꼽힌다. 비린내가 없고 담백하며 독특한 풍미의 이 흰살생선은 제주의 잔치나 제사상에 빠지지 않을 만큼 귀한 대접을 받아온 제주의 특산품. 다른 생선처럼 구이로 즐기는 건 기본, 국으로도 인기다. 옥돔 살을 넣은 미역국도 좋지만 특히 겨울철 보약이라 불리는 무와 함께 끓인 옥돔뭇국은 시원하고 담백한 맛이 일품. 지금도 제주의 산간이나 들판에서 종종 꿩을 마주치는데, 그 꿩으로 만든 음식들도 제주인의 소울 푸드로 자리 잡았다. 좁쌀감주에 꿩고기를 넣고 졸인 꿩엿은 옛 제주인들의 민간요법이자 겨울 보양식. 저지방 고단백의 꿩고기를 얇게 저며 육수에 익혀먹는 샤브샤브, 꿩고기를 넣은 만두, 살코기를 양념해 구워먹는 꿩구이 모두 제주의 겨울건강식이자 제주를 찾는 이들이 한번쯤 즐길만한 특별한 맛. 제주관광공사 관계자는 “한해를 돌아보며 쉼 없이 달려온 순간, 잠깐의 충전이 필요할 때 제주에서의 마무리하기 위해 준비해 보았다"며 "오늘도 수고했다는 마음을 달래던 노래처럼 12월 제주에서 힘들었던 시간을 비워내고 다시 채울 용기를 얻길 바란다”고 전했다. 12월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 표사모 2019-11-20 14:55:53 | 61.***.***.24 더보기 삭제하기 수정하기 소금막 해변은 표선리가 아니고 하천리입니다 답글쓰기 1 0 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 신임 회장에 부동석씨 선출 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도관광협회, 신임 회장에 부동석씨 선출 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도관광협회, 신임 회장에 부동석씨 선출 송고시간2019-11-07 15:38 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주도관광협회는 7일 오후 제주웰컴센터 웰컴홀에서 2019년도 임시 대의원총회를 열어 부동석(53)씨를 제35대 제주도관광협회장으로 선출했다. 부동석 신임 제주도관광협회장 (제주=연합뉴스) 제주도관광협회는 7일 오후 제주웰컴센터 웰컴홀에서 2019년도 임시 대의원총회를 열어 부동석(53)씨를 제35대 제주도관광협회장으로 선출했다. 2019.11.7 [제주도관광협회 제공, 재판매 및 DB금지] 부 신임 회장은 제주도관광협회장 선거에 단독 출마해 대의원 만장일치로 선출됐다. 부 신임 회장의 임기는 2021년 2월까지다. 광고 앞서 김영진 전 제주도관광협회장은 내년 총선 출마를 공식화했다. 그는 2011년부터 8년 8개월간 네차례 연임에 성공하며 회장직을 수행한 뒤 1년여 임기를 남기고 퇴임했다. 부 신임 회장은 "1년여 잔여임기 동안 지키지 못할 공약보다 관광업계가 직면한 어려움과 경쟁력 강화에 맞춰 구체적인 전략을 실천해 나가겠다"는 의지를 피력했다. 부 신임 회장은 제주대학교 행정대학원 고급관리자과정을 수료하고 제주도관광협회 부회장, 제주도체육회 이사, 제주도배구협회 회장 등을 역임했다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/11/07 15:38 송고 #부동석 #제주도관광협회 #회장 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 24 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 10 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 제주·원동항공과 TOP3 대만 관광객 유치 '맞손' - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 제주·원동항공과 TOP3 대만 관광객 유치 '맞손' 파이낸셜뉴스입력 2019.11.09 18:06수정 2019.11.09 18:10 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 지난해 방한 관광객 대만 3위…제주-대만 4개사서 주 14회 운항 공동 마케팅 강화…타이베이국제여전 참가 제주상품 홍보 주력 [제주=좌승훈 기자] 제주특별자치도가 제주와 대만을 잇는 직항 노선 항공사를 대상으로 대만 관광객 유치 확대를 위한 공동 마케팅에 적극 나서고 있다. 도는 7~11일 대만 타이베이 난강전람관에서 열리고 있는 한국관광공사 주최 한국문화관광대전 및 타이베이국제여전(2019 Taipei International Travel Fair)에 참가해 홍보관을 운영하는 한편 원동항공과 제주항공을 잇달아 방문해 공동 프로모션을 추진키로 합의했다. 지난해 방한 외국인 관광객은 1위가 중국(479만명), 2위 일본(295만명), 3위 대만(111만명), 4위 미국(97만명), 5위 홍콩(68만명) 순이다. 특히 제주-대만 직항노선은 기존 3개 항공사(타이거항공·원동항공·이스타항공)에 이어 지난 10월부터 제주~타이베이와 제주~가오슝 노선에 신규 취항한 제주항공까지 총 4개사·주 14회(편도)이 운항돼 대만 관광객 유치활동에 활력이 되고 있다. 도는 우선 제주항공과는 대만 제2도시인 가오슝지역 주요 여행업계 초청 팸투어를 오는 15~ 19일 진행키로 했다. 제주항공은 10월 가오슝 노선 시범운항에 이어 11월 15일부터 가오슝-제주 노선을 정기노선으로 편성해 운항할 예정이다. 도는 이에 따라 가오슝 주요 여행업계(강복·웅사·동남·첩리여행사)와 한국관광공사 타이베이지사 관계자를 초청해 제주의 가을 콘텐츠(억새·핑크뮬리·단풍)과 주요 포토 스팟을 알릴 예정이다. 또 신규 취항노선 활성화와 함께 겨울철 대만 관광객 유치 활성화를 위해 공동으로 대만 현지 소비자 행사와 온·오프라인 홍보마케팅을 적극 추진키로 했다. 원동항공과는 20세 이상 여성층을 타깃으로 대만 주요 온라인 채널(페이스북·인스타그램·유튜브·백패커)을 통해 자유여행·힐링 등 키워드 광고와 댓글 이벤트를 진행한 데 이어, 오는 11월 말까지 주요 지하철역(대안역·남경부흥역·중산역) 전광판 광고를 진행하고 있다. 루기룽 원동항공 부총경리는 “제주시장은 대만에서 인지도가 높고 젊은층들에게 선호도가 높은 관광 목적지이자 원동항공의 주요 국제노선”이라며 “향후 증편운항을 비롯해 제주도와 적극 협력해 나가겠다”고 밝혔다. 도는 또 대만 최대의 한국 아웃바운드 여행사인 강복여행사(Cola tour) 완리향 부총경리와도 만나 인센티브 관광 활성화에 적극 협력키로 했다. 아울러 도는 제주관광공사, 제주관광협회, 도내 7개 업체와 공동으로 타이베이 국제여전을 통해 ‘제주, 설레는 섬 여행(齊州, 心動島旅)’을 주제로 제주관광 홍보부스와 제주해녀 테마존을 운영하고 온라인 이벤트도 진행했다. 강영돈 도 관광국장은 “대만시장은 잇단 직항노선 개설로 접근성이 강화돼 월 평균 90% 이상 성장세를 보이고 있어 해외 관광시장 다변화 전략의 1순위 시장”이라며 “직항노선의 안정적 유지와 광광객 유치 활성화를 위해 항공사와 공동 마케팅을 더욱 강화해 나가겠다”고 말했다. jpen21@fnnews.com 좌승훈 기자 키워드#2019 타이베이국제여전 #한국문화관광대전 #타이거항공 #원동항공 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 세계 최대 ‘무슬림 관광시장’을 공략! - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-11 12:35 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 대한민국 특별귀화자 1호 인요한, 2023순천만국제정원박람회 홍보대사 위촉 고양시, CJ라이브시티 조기 완공 추진 '민관 TF팀' 첫 회의 개최 풍속·해학 등 김홍도 예술혼 재현 '안산 김홍도축제' 4년만에 오프라인 개최 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 고창문화관광재단, 고창형 플리마켓 '고창한장 단풍마켓' 개최 백일홍 만개한 '곡성군 섬진강동화정원'..가을나들이객 유혹 튜닝·전시·모터스포츠의 모든 것 만나는 '보령 AMC 모터 페스티벌’ 열려 모두투어, 빗장 푼 미지의땅 사우디아라비아 도슨트 투어 상품 출시 핫뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 감성 채워주는 공주 힐링스폿! 공주 금강신관공원 코스모스 활짝 "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! [포토] 핑크뮬리 유혹하는 함평 석두마을 올가을, ‘대전효문화뿌리축제’에서 뿌리 찾는 즐거움에 빠져볼까! 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 '수트라하버 리조트', MZ세대 겨냥 해외 골프패키지 홈쇼핑 판매 10월, 축제 분위기로 핫 한 '여수' 여행 재미에 빠져 봐~ 이전 다음 제주도, 세계 최대 ‘무슬림 관광시장’을 공략! 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 정책 제주도, 세계 최대 ‘무슬림 관광시장’을 공략! 정하성 기자 승인 2019.11.13 16:56 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 인도네시아 무슬림 TV 프로그램 통해 제주 무슬림 인프라 알려 제주도가 신흥 잠재시장으로 떠오른 ‘무슬림 관광객’을 유치하기 위해 세계 최대 ‘무슬림 관광시장’인 인도네시아 공략에 나선다. 이를 위해 제주도와 제주관광공사는 한국관광공사 자카르타지사와 공동으로 지난 9일부터 오는 16일까지 8일간 인도네시아 공중파 채널 TransTV 제작팀을 초청하고, 제주 무슬림 인프라를 방송을 통해 알릴 예정이다. 이에따라 'Islam Itu Indah(Islam is Beautiful, 이슬람은 아름다워) TV 방송을 통해 무슬림 친화 관광지, 기도실, 호텔 등 제주도 내 무슬림 친화시설과 이슬림 친화 식당이 전파를 탈 예정이다. 이와함께 감귤 따기와 감귤 타르트 만들기, 억새 등 가을과 겨울에 즐길 수 있는 제주여행 콘텐츠와 요트투어, 전기자전거 등 다양한 액티비티도 홍보할 계획이다. 이번 프로그램은 인도네시아 TransTV를 통해 오는 24일부터 12월 8일까지 매주 일요일 총 3회에 걸쳐 방송되고, TransTV 유튜브 채널을 통해서도 노출될 예정이다. 한편, 전 세계 무슬림 인구는 약 18억 명으로 전체 인구의 23% 가량이며, 세계 관광 지출의 약 12% 정도를 차지하고 있다. 또, 방한 무슬림 관광객 역시 지속적으로 증가해 올해 처음으로 100만 명을 돌파할 것으로 예상되고 있다. 특히 인도네시아의 경우 무슬림 비율이 87%에 달해 단일 국가로는 가장 많은 2억 2,000만명 이상의 무슬림 인구를 보유하고 있는 잠재력이 큰 관광시장이다. 제주관광공사 관계자는 “제주도내 무슬림 친화 식당은 30곳, 상설 기도실 12곳 정도로, 잠재력이 큰 인도네시아 관광시장을 공략하기 위해 관련 인프라를 꾸준히 발굴하고 있다”며, “이와 동시에 제주가 가진 무사증 제도 효과를 극대화하기 위해 쿠알라룸푸르, 홍콩 등 제주 직항노선을 활용한 인도네시아 관광객 유치 마케팅도 본격적으로 추진하고 있다”고 밝혔다. &lt;사진/제주관광공사 제공&gt; 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 정하성 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 감성 채워주는 공주 힐링스폿! 공주 금강신관공원 코스모스 활짝 "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 TRIP 신비로운 남원 서어나무숲에서 즐기는 가을 향기 BIZ 반짝이는 내 차를 위해, 세차 산업의 역사 FOOD 절대 갈변하지 않는 밤 보관 특급비법 CULTURE '월수금화목토' 아직은 질리지 않는 박민영표 로맨틱 코미디 LIFE 동요대회 입상한 노노카짱의 근황 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 대한민국 특별귀화자 1호 인요한, 2023순천만국제정원박람회 홍보대사 위촉 고양시, CJ라이브시티 조기 완공 추진 '민관 TF팀' 첫 회의 개최 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 대한민국 특별귀화자 1호 인요한, 2023순천만국제정원박람회 홍보대사 위촉 포토뉴스 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 인기뉴스 1 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 2 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 3 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 4 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 5 감성 채워주는 공주 힐링스폿! 6 공주 금강신관공원 코스모스 활짝 7 "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 8 [포토] 핑크뮬리 유혹하는 함평 석두마을 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
+  </si>
+  <si>
+    <t>전자여행허가제, 관광타격 우려하는 제주도 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 11:57 (화) 이전 다음 전자여행허가제, 관광타격 우려하는 제주도 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 관광 전자여행허가제, 관광타격 우려하는 제주도 이감사 기자 승인 2019.11.13 12:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 제주관광공사와 관광협회, 11월12일 법무부 찾아 "ETA 도입으로 무사증 제도 부작용 줄지 않을 것···추진해야 한다면 제주 아닌 다른 곳 먼저" 건의 올해 7월 '출입국관리법 일부개정법률안' 발의···뒤늦은 대응 나선 제주관광 제주관광공사. 정부가 도입을 검토 중인 전자여행허가제도(ETA. Electronic Travel Authority)에 대해 제주도가 뒤늦게 반대 입장의 목소리를 내고 있다. 법무부는 제주도가 ETA 제도를 요청했었고, 무사증 입국으로 증가하는 불법체류자와 제한적인 동원 인력 등 불편을 줄일 수 있어 긍정적으로 받아드리고 있다. 반면 제주는 ETA로 관광 경쟁력 저하를 보일 수 있다는 이유로 난색을 표하고 있다. ETA는 무사증 외국인이 국내 입국 72시간 전 우리나라 홈페이지에 접속해 여권정보, 본국 거주지, 체류지역, 숙소, 연락처, 여행 경비 등을 기입하는 제도다. 이를 토대로 정부는 외국인의 입국 여부를 판단한다. 조응천 국회의원(더불어민주당, 경기 남양주 갑)은 올해 7월19일 '출입국관리법 일부개정법률안'을 대표발의 했다. 현재는 국회 법제사법위원회에 계류 중에 있다. 주요내용은 외국인이 국내 입국 시 사전여행허가서를 발급받도록 하는 것이다. 무사증 정책에 따라 사증 없이 입국하는 외국인 증가로, 불법체류자가 지속적으로 증가하고 있다는 이유다. 무사증입국 외국인에 대한 입국심사 강화에 따른 불편 가중도 한 몫을 했다. 제주도는 앞서 법무부 측에 '무사증 제도' 보완 차원에서 해당 제도를 요청한 바 있다. 배경은 지난 2016년 9월 제주시 연동에 위치한 성당에서 무사증으로 입국한 50대 중국인이 기도 중인 신자를 흉기로 찔러 숨지게 한 사건이다. 무사증 입국에 따른 불법체류자 증가 등으로 외교·사회적 문제에 골머리를 앓고 있는 법무부는 개선 차원에서 ETA가 매력적인 제도다. 해당 제도 도입으로 관광업계에서 위기의 목소리가 흘러나오자 제주도는 종전 입장을 바꾸고 뒤늦게 수습에 나서는 형국이다. 제주도관광협회와 제주관광공사는 어제(11월12일) 오후 2시 법무부 출입국 심사과를 찾고, 건의서를 언론에 배포하는 등 대응을 시작했다. 오늘(13일)은 도관광공사에서 ETA 관련 기자 브리핑도 진행했다. 제주관광공사 관계자는 "개정안이 올해 7월 발의된 내용을 최근에야 알게 됐다"면서 "(관광업계) 목소리를 전달할 필요가 있다는 생각으로 법무부를 찾았다"고 말했다. 도관광공사에 따르면 12일 법무부를 찾아 ETA는 외국인 이용자의 번거로움과 수수료 부과 등으로 비자제도로 인식될 수 있어 제주의 무사증제도 취지가 훼손될 수 있다고 강조했다. 또 법무부가 이야기하는 '무사증 제도의 폐해'는 ETA 도입으로도 개선되지 않을 수 있다는 의견을 제시했다. 관광산업에 악영향을 미치지 않고 폐해를 줄일 수 있는 방법으로는 일본의 '신고보상금제도' 등을 법무부 측에 도관광공사는 건의했다. 이와 함께 정부에서 ETA제도를 추진해야한다면 제주도가 첫 도입이 아닌, 관광산업 비중이 작은 육지부부터 시범도입하게 해달라는 내용도 덧붙였다. 법무부 측은 "향후 제주 방문 등을 통해 관광업계의 의견을 최대한 수렴하겠다"며 "법무부 차원에서 일방적으로 추진하지는 않겠다"고 답했다. 한편 제주도관광협회와 관광공사는 건의문을 통해 "제주는 관광사업 연계 비중이 70%로, 최근 급감한 중국인과 일본 관광객 등으로 많은 어려움을 겪고 있다"면서 "사전여행허가제도 도입 입법 예고로 심각한 우려를 가지고 있다"고 호소했다. 그러면서 "사전여행허가제도 도입 시 외국인 관광객 유치에 악영향을 미쳐 제주관광과 경제에 큰 타격을 줄 것"이라며 "제주지역이 제외되기를 바란다"고 했다. Tag #ETA #전자여행허가제도 #제주도 #제주관광공사 #법무부 #무사증 #외국인 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 관련기사 제주도정 "전자사전여행허가제, 제주는 제외" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[김광수 교육감 축사] 뉴스제주 창간 16주년 2[강병삼 시장 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 제주소방 상황실, 빈틈 없는 신고 접수 제주소방 상황실, 빈틈 없는 신고 접수 제주 지구시민 해양정화 페스티벌 성황리 개최 제주 지구시민 해양정화 페스티벌 성황리 개최 서귀포시, 자립준비청년 지원 방안 마련 민·관 공유회의 개최 신용보증지원, 수도권에 지나치게 편중... 제주 소외 신용보증지원, 수도권에 지나치게 편중... 제주 소외 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 사무관 승진의결자 8명 승진임용 서귀포시, 사무관 승진의결자 8명 승진임용 친절은 누구나 춤추게 한다. 친절은 누구나 춤추게 한다. 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>[전문] 제주도의회 예산안 심사 입장 - 이경용 문화관광체육위원장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 제주도의회 예산안 심사 입장 - 이경용 문화관광체육위원장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 제주도의회 예산안 심사 입장 - 이경용 문화관광체육위원장 편집팀 iheadline@hanmail.net 승인 2019.11.21 11:15 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 이경용 문화관광체육위원장. ⓒ헤드라인제주 2020년 예산은 원도정의 하반기 문화관광체육분야의 정책을 알 수 있는 예산의 시작이라고 할 수 있다. 현재 도정에서 1순위로 편성되고 있는 공약과 국책사업, 주민숙원사업을 심층적으로 검토해 내년도 문화체육분야와 관광분야를 얼마나 성의 있게 반영시키고 있는지 꼼꼼히 보겠다. 그 가운데 문화관광자원으로 가져갈 수 있는 문화유산의 가치와 더불어 도민에게 먼저 혜택이 돌아가고, 도민의 행복에 도움이 되고 있는지 살펴보겠다. 또한 편성된 예산이 도민의 생활문화와 생활체육을 누림에 있어 실질적인 기여 가능성을 면밀하게 검토하여 현장 구석구석까지 행정의 공정성이 지켜질 수 있는 예산 편성이 될 수 있도록 집중 확인하겠다. 제주 경제 산업 중 가장 많은 범위를 차지하는 관광산업에 대해서도 최근 몇 년간 침체된 관광산업의 회생을 위한 적절한 예산 편성과 시너지 효과를 창출해 낼 수 있도록 살펴보겠다. 선심성에 따른 퍼주기 예산을 꼼꼼히 따져서 지방재정의 건전성과 효율성 확보에 최선을 다하겠다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 대만 관광시장 겨냥 공동 협력 강화 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 대만 관광시장 겨냥 공동 협력 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도, 대만 관광시장 겨냥 공동 협력 강화 기자명 이은지 기자 입력 2019.11.10 14:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 최근 대만 직항 신규노선을 취항한 제주항공과 기존 운항항공사인 원동항공사 등과 함께 공동 마케팅을 강화한다.도와 제주항공은 오는 15~19일 대만의 제2도시인 가오슝 지역 주요 여행업계 초청 팸투어를 진행할 계획이다. 제주항공은 지난달 가오슝 노선 시범운항에 이어 오는 15일부터 가오슝-제주 노선을 정기 편성할 예정으로, 가오슝 주요 여행업계와 한국관광공사 타이베이지사 관계자를 초청해 제주의 가을 콘텐츠(억새, 핑크뮬리, 단풍)와 주요 포토스팟 등 홍보도 강화한다.도와 원동항공사는 20대 여성을 타겟으로 대만 주요 온라인 채널(페이스북, 인스타그램, 유튜브, 백패커 등)을 통해 '자유여행', '힐링' 등 키워드광고 및 댓글 이벤트를 진행했다.이달말까지 주요 지하철역(대안역, 남경부흥역, 중산역) 전광판 광고를 실시할 예정이다. 강영돈 제주특별자치도 관광국장은 "대만시장은 타이거, 원동, 이스타 항공에 이어 제주항공도 취항하는 등 접근성 강화로 월 평균 90% 이상 성장세를 보이고 있고, 인센티브 단체도 꾸준히 증가하는 등 관광 해외시장 다변화 전략의 1순위 공략시장"이라며 "직항노선의 안정적 유지를 위해 항공사와 해외 관광객 유치 공동 마케팅을 더욱 강화해 나가겠다"고 밝혔다.제주-대만 직항노선은 기존 3개 항공사(타이거항공, 원동항공, 이스타항공)와 지난달 신규취항한 제주항공 등 4개 항공사가 운항하고 있다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, ‘대만 관광시장 타깃’ 직항항공사 공동 전략 마케팅 - 아시아투데이 아시아투데이 서울 다른도시15.0℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, ‘대만 관광시장 타깃’ 직항항공사 공동 전략 마케팅 휴젤, 보툴리눔 제제 '보툴렉스' 미FDA 허가 재신청 셀트리온제약, '고덱스캡슐' 급여 유지… '급여적정성 있음' 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도, ‘대만 관광시장 타깃’ 직항항공사 공동 전략 마케팅 기사승인 2019. 11. 11. 09:35 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 제주-대만 직항항공사와 공동마케팅 전개 제주 대만홍보0제주특별자치도는 지난 7일부터 11일까지 타이베이에서 열린 국제여전(ITF)에 관광공사, 관광협회, 제주도내업계(7개)와 공동으로 참가해 ‘제주, 설레는 섬 여행(齊州, 心動島旅)’을 주제로 제주관광 브랜드를 홍보했다. /제공=제주도제주 나현범 기자 = 제주특별자치도는 비약적 성장을 거듭하고 있는 대만 관광시장 활성화를 위해 제주-대만 간 신규노선을 취항한 제주항공과 기존 운항항공사인 원동항공사를 직접 방문해 공동 마케팅을 강화해 나가기로 협의했다고 11일 밝혔다.타이거항공, 원동항공, 이스타항공 등 3개 항공사가 참여하던 제주-대만 직항노선은 10월 제주항공의 타이베이·가오슝 노선 신규 취항으로 총 4개 항공사로 늘어 주 14편(편도) 운항 중이다.이를 위해 제주도는 제주항공과 공동으로 대만 제2도시인 가오슝 지역 주요 여행업계 초청 팸투어를 오는 15일부터 19일까지 닷새간 진행하기로 했다.제주항공은 10월 가오슝 노선 시범운항에 이어 이달 15일부터 가오슝-제주 노선을 정기노선으로 편성해 운항할 예정이다. 제주도는 이에 맞춰 가오슝 주요 여행업계(강복, 웅사, 동남, 첩리여행사)와 한국관광공사 타이베이지사 관계자를 초청해 제주의 가을 콘텐츠(억새, 핑크뮬리, 단풍)와 주요 포토스팟 등을 홍보할 예정이다.또 신규 취항노선 활성화와 동계시즌 대만 관광객 유인을 위해 공동으로 대만 현지 소비자행사 및 온오프라인 홍보마케팅을 적극적으로 추진하기로 했다.이어 원동항공사와는 20세이상 여성층 타깃으로 대만 주요 온라인 채널(페이스북, 인스타그램, 유튜브, 백패커 등)을 통해 ‘자유여행’ ‘힐링’ 등 키워드 광고 및 댓글 이벤트를 진행했으며, 오프라인으로는 주요 지하철역(대안·남경부흥·중산역) 전광판 광고를 이달 말까지 추진하기로 했다.루기룽 원동항공 부총경리는 “제주 시장은 대만에서 인지도가 높고 젊은층들에게 선호도가 높은 관광 목적지”라며 “변화하는 관광시장에 맞춘 홍보로 반응이 좋아 현재 증편을 검토하고 있는 등 향후 제주도와 보다 적극적으로 협력하겠다”고 밝혔다.또 대만 최대 한국 아웃바운드 여행사인 강복여행사의 완리향 부총경리도 내년 제주도에 대규모 인센티브단 유치를 위해 공동 노력하기로 했다.앞서 제주도는 지난 7일부터 11일까지 타이베이에서 열린 국제여전(ITF)에 관광공사, 관광협회, 제주도내업계(7개)와 공동으로 참가해 ‘제주, 설레는 섬 여행(齊州, 心動島旅)’을 주제로 제주관광 브랜드를 홍보했다.강영돈 도 관광국장은 “대만시장은 4개 항공사가 취항하는 등 접근성 강화로 월 평균 90% 이상 성장세를 보이고 있고 인센티브 단체도 꾸준히 증가하는 관광 해외시장 다변화 전략의 1순위 공략시장”이라며 “직항노선의 안정적 유지를 위해 항공사와 해외관광객 유치 공동마케팅을 더욱 강화해 나가겠다”고 밝혔다. 전국부 나현범 기자 &gt; hnews@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 전국 많이 본 뉴스 1 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 2 ‘주민등록법위반 혐의’ 김재한 창녕군의회 의장 피소 3 김동연 도지사 “전통시장은 지역경제의 근간, 지역화폐 활.. 4 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 5 ‘주홍빛 물든 청도에서 즐겨보자’...청도반시축제·세계코.. 6 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 7 김영록 전남지사, 중앙지방협력회의서 중앙권한 과감한 이양.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 세가지 갈치요리를 한 번에 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>오늘 제주도관광협회 회장 보궐 선거 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이오늘 제주도관광협회 회장 보궐 선거 박주연2019년 11월 07일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도관광협회 회장 보궐선거가 오늘(7일) 치러집니다. 제주도 관광협회는 오늘 오후 제주웰컴센터에서 대의원 총회를 열어 당연직을 포함한 선거인단 180명이 단독출마한 부동석 관광협회 부회장에 대한 투표를 진행합니다. 대의원 과반수 이상의 표를 받을 경우 차기 회장으로 선출되는데, 김영진 전 회장의 잔여 임기인 오는 2천21년 2월까지 회장직을 맡겨됩니다. 박주연jyp@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초오늘 제주도관광협회 회장 보궐 선거 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>갈치회, 갈치구이, 갈치조림 모두 있는 효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 2019년 하반기 우수관광사업체 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 2019년 하반기 우수관광사업체 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 2019년 하반기 우수관광사업체 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.11.04 17:18 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 오는 8일까지 도내의 우수한 품질과 고품격의 서비스를 갖춘 우수한 관광사업체를 모집한다고 밝혔다. 신청대상은 영업신고(리모델링) 후 1년 이상 제주특별자치도에 사업장 소재지(사업장 주소)를 둔 사업체다. 분야는 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야로, 이전에 우수관광사업체로 지정 후 2년이 도래한 사업체도 신청해 재지정을 받아야 한다. 우수관광사업체 선정은 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며, 지정 기간은 내년 1월1일부터 2021년 12월31일까지 2년이다. 이전 공모와 달리 △농어촌민박 중 농어촌민박업 안전인증을 받지 않은 업체 △자동차대여사업자 중 렌터카총량제 자율감차 1차분(50%) 감차 미이행 업체는 신청대상에서 제외된다. 주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등이 평가되며, 종합점수가 기준 점수(90점)를 충족한 경우 평정위원회 심의를 거쳐 최종 선정된다. 지정된 업체는 우수관광사업체 지정서 및 인증패가 수여되고, 제주특별자치도 및 유관기관 홈페이지 게재, SNS 홍보(블로그, 유튜브 등), 리플릿, 지도 제작 및 배포를 통해 홍보 인센티브 혜택이 주어지며 추가 홍보지원금도 지급된다. 또, 지정된 우수관광사업체 종사자 대상의 서비스 교육 지원도 받게 된다. 우수관광사업체로 지정을 희망하는 사업체는 제주특별자치도 홈페이지(www.jeju.go.kr) '타기관입법.공고.고시' 게시판에서 우수관광사업체 지정신청서 등을 다운로드 받아 제주특별자치도 관광협회(064-741-8744)에 신청하면 된다. 자세한 공모 내용은 제주특별자치도 관광협회 홈페이지에서 확인할 수 있다. 제주도 관계자는 "올해는 지난해에 비해 홍보지원금을 상향했고, 온라인홍보 강화를 위해 SNS홍보 채널을 추가했다"며 "또한 온라인마켓 탐나오 입점 및 구매 이벤트 등도 지원을 할 계획으로 도내 우수 관광사업체가 많이 참여해 주길 바란다"고 당부했다. 한편, 제주특별자치도에서는 현재 총 81개소를 우수관광사업체로 선정해 관리하고 있다. 선정된 업체는 관광지 33곳, 교통 7곳, 숙박 20곳, 여행 7곳, 음식점 14곳이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>효리의단골집 갈치회,구이,조림까지 한 번에 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 남녀노소 좋아하는 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 호평일색 갈지청식 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 우수관광사업체 공모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 하반기 우수관광사업체 공모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도, 하반기 우수관광사업체 공모 문유미 기자 승인 2019.11.05 13:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 고품질 서비스를 갖춘 우수관광사업체를 모집한다. 제주도는 오는 8일까지 올 하반기 우수관광사업체 지정을 위한 신청을 접수하고 있다고 5일 밝혔다. 신청 대상은 도내 사업장 소재지를 두고 영업신고 및 리모델링 후 1년 이상 경과한 ▲관광지 ▲교통 ▲숙박업 ▲여행업 ▲음식업 등 5개 분야의 사업체다. 우수관광사업체로 지정된 지 2년이 지난 업체도 신청해 재지정을 받아야 한다. 특히 이번 공모에서는 농어촌민박 가운데 농어촌민박업 안전인증을 받지 않은 업체와 자동차대여사업자 중 렌터카 총량제 자율감차 1차분(50%) 미이행 업체가 신청대상에서 제외됐다. 공모 신청 업체는 신청서류 등 자격요건 심사와 현장평가, 평정위원회 심의 등을 거쳐 우수관광사업체로 선정될 수 있다. 우수관광사업체 지정 기간은 2년(2020년 1월 1일~2021년 12월 31일)이며, 선정된 업체에게는 지정서 및 인증패가 수여된다. 또 제주도 및 유관기관 홈페이지 게재, SNS 홍보, 리플릿·지도 제작 및 배포 등 홍보 인센브 혜택과 홍보 지원금이 제공되며 종사자 서비스 교육도 지원받을 수 있다. 제주도 관계자는 “올해는 지난해에 비해 홍보 지원금을 상향했고, 온라인 홍보 강화를 위해 SNS 홍보 채널도 추가했다”며 “또 제주여행 오픈마켓 ‘탐나오’ 입점 및 구매 이벤트 등을 지원할 계획으로, 도내 우수 사업체들의 많은 참여를 바란다”고 말했다. 한편 제주도는 현재 총 81개소(관광지 33, 교통 7, 숙박 20, 여행 7, 음식 14)를 우수관광사업체로 선정해 관리 및 지원하고 있다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 이달 중 도내 관광시설에 무장애 관광안내 책자 비치 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 이달 중 도내 관광시설에 무장애 관광안내 책자 비치 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 이달 중 도내 관광시설에 무장애 관광안내 책자 비치 현대성 기자 승인 2019.11.05 15:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 이달 중으로 도내 유명 관광시설 50곳에 무장애 관광안내 책자 ‘모두를 위한 여행 in Jeju’를 비치한다고 5일 밝혔다. 안내 책자에는 보장구 이동 동선 등 관광 경로와 장애인 화장실 이용 정보 등이 담긴다. 제주도는 노면 상태, 기울기, 장애물 등을 고려해 색깔로 보장구 이동 동선의 난이도를 표시했다. 제주도는 이동약자 관련 단체, 제주도와 양 행정시 민원실 등에도 책자를 비치할 예정이다. 제주도는 지난해 행정안전부의 ‘주민 체감형 디지털 사회혁신(공감e가득) 활성화’ 공모사업을 통해 발굴한 ‘무장애여행 데이터’의 활용 방안 중 하나로 이 책자를 발간했다. 제주도는 올해 공모사업으로 ‘이동약자가 체감할 수 있는 모바일 관광지 길안내서비스’ 어플리케이션을 개발하고 있다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 성산일출봉 찾은 관광객들 menu 제주도 성산일출봉 찾은 관광객들 search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 제주 천지포토 제주도 성산일출봉 찾은 관광객들 김태현 기자 승인 2019-11-04 14:53 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 [천지일보=김태현 기자] 4일 오후 제주도 서귀포시 성산읍 성산일출봉 일원을 찾은 관광객들의 발길이 이어지고 있다. 김태현 기자 kyi2077@newscj.com 다른기사 보기 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 가로세로 퀴즈 가로세로 낱말 퀴즈&lt;37&gt;, &lt;36&gt; 답 및 당첨자 발표 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 사설 한국은행 빅스텝 결단은 과감해야 한다 사설 국정감사 이제부터라도 민생이 필요하다 칼럼 원자력발전 친환경 맞나 칼럼 연예인들이여, 성인이 됐으면 경제적으로 독립해야 한다 칼럼 국가안보는 국가존립의 핵심 칼럼 미국, 중국반도체 자립 자극 더했다 기획 [정치인사이드] ‘윤석열차’로 촉발된 대통령 풍자 논란… 과거 정부 땐 어땠나 [현대이야기&lt;22&gt;] 걸면 걸리는 ‘걸리버’ 기억 나시나요?… 추억이 된 현대전자 [한국인 이만희 평화실화 FOCUS│HWPL과 아프리카&lt;1&gt;] HWPL, 아프리카 각계각층에 “평화의 일 함께하자” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
   </si>
 </sst>
 </file>
@@ -437,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,9 +563,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -470,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +660,221 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
